--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_08/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_08/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\ROI_greedy\dataset_08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DBE8C9-B48F-4713-81B4-0ECB315B5C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_08_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9790331974373908</v>
+        <v>0.97903319743739081</v>
       </c>
       <c r="O2">
         <v>4339</v>
@@ -612,16 +701,16 @@
         <v>905</v>
       </c>
       <c r="Q2">
-        <v>1.567464242098425</v>
+        <v>1.5674642420984251</v>
       </c>
       <c r="R2">
         <v>2015.444860900926</v>
       </c>
       <c r="S2">
-        <v>4.794475138121547</v>
+        <v>4.7944751381215474</v>
       </c>
       <c r="T2">
-        <v>5.605479452054794</v>
+        <v>5.6054794520547944</v>
       </c>
       <c r="U2">
         <v>1.72374459292908</v>
@@ -642,7 +731,7 @@
         <v>1.004330827067669</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -692,13 +781,13 @@
         <v>855</v>
       </c>
       <c r="Q3">
-        <v>1.60498356208472</v>
+        <v>1.6049835620847199</v>
       </c>
       <c r="R3">
-        <v>2028.739054417564</v>
+        <v>2028.7390544175639</v>
       </c>
       <c r="S3">
-        <v>4.977777777777778</v>
+        <v>4.9777777777777779</v>
       </c>
       <c r="T3">
         <v>5.333333333333333</v>
@@ -722,7 +811,7 @@
         <v>1.001187514137073</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9551758793969849</v>
+        <v>0.95517587939698489</v>
       </c>
       <c r="O4">
         <v>6352</v>
@@ -775,19 +864,19 @@
         <v>1.528862504198317</v>
       </c>
       <c r="R4">
-        <v>2869.756331718918</v>
+        <v>2869.7563317189179</v>
       </c>
       <c r="S4">
-        <v>4.612926652142338</v>
+        <v>4.6129266521423382</v>
       </c>
       <c r="T4">
-        <v>7.627615062761507</v>
+        <v>7.6276150627615067</v>
       </c>
       <c r="U4">
-        <v>2.031775222747152</v>
+        <v>2.0317752227471519</v>
       </c>
       <c r="V4">
-        <v>3295.217165290292</v>
+        <v>3295.2171652902921</v>
       </c>
       <c r="W4">
         <v>23040</v>
@@ -802,7 +891,7 @@
         <v>1.00977341455932</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9481211441390914</v>
+        <v>0.94812114413909143</v>
       </c>
       <c r="O5">
         <v>4471</v>
@@ -855,19 +944,19 @@
         <v>1.597432432534055</v>
       </c>
       <c r="R5">
-        <v>2120.32364855668</v>
+        <v>2120.3236485566799</v>
       </c>
       <c r="S5">
-        <v>4.940331491712707</v>
+        <v>4.9403314917127066</v>
       </c>
       <c r="T5">
-        <v>6.241860465116279</v>
+        <v>6.2418604651162788</v>
       </c>
       <c r="U5">
-        <v>1.831278289403964</v>
+        <v>1.8312782894039641</v>
       </c>
       <c r="V5">
-        <v>2199.825503334443</v>
+        <v>2199.8255033344431</v>
       </c>
       <c r="W5">
         <v>20474</v>
@@ -882,7 +971,7 @@
         <v>1.009118241411602</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9365566641084676</v>
+        <v>0.93655666410846761</v>
       </c>
       <c r="O6">
         <v>4844</v>
@@ -935,16 +1024,16 @@
         <v>1.644949575384296</v>
       </c>
       <c r="R6">
-        <v>2370.972147015684</v>
+        <v>2370.9721470156842</v>
       </c>
       <c r="S6">
-        <v>5.180748663101604</v>
+        <v>5.1807486631016042</v>
       </c>
       <c r="T6">
-        <v>7.36695652173913</v>
+        <v>7.3669565217391302</v>
       </c>
       <c r="U6">
-        <v>1.997004665923947</v>
+        <v>1.9970046659239471</v>
       </c>
       <c r="V6">
         <v>2512.72231709373</v>
@@ -959,10 +1048,10 @@
         <v>19073</v>
       </c>
       <c r="Z6">
-        <v>1.013002673936979</v>
+        <v>1.0130026739369791</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.962856458183561</v>
+        <v>0.96285645818356103</v>
       </c>
       <c r="O7">
         <v>5153</v>
@@ -1012,22 +1101,22 @@
         <v>980</v>
       </c>
       <c r="Q7">
-        <v>1.659781776663607</v>
+        <v>1.6597817766636069</v>
       </c>
       <c r="R7">
-        <v>2546.413858869665</v>
+        <v>2546.4138588696651</v>
       </c>
       <c r="S7">
-        <v>5.258163265306123</v>
+        <v>5.2581632653061234</v>
       </c>
       <c r="T7">
-        <v>6.865693430656934</v>
+        <v>6.8656934306569344</v>
       </c>
       <c r="U7">
-        <v>1.926537043682823</v>
+        <v>1.9265370436828231</v>
       </c>
       <c r="V7">
-        <v>2698.322125077267</v>
+        <v>2698.3221250772672</v>
       </c>
       <c r="W7">
         <v>18903</v>
@@ -1039,10 +1128,10 @@
         <v>18748</v>
       </c>
       <c r="Z7">
-        <v>1.008267548538511</v>
+        <v>1.0082675485385111</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9519295870006771</v>
+        <v>0.95192958700067709</v>
       </c>
       <c r="O8">
         <v>3689</v>
@@ -1092,7 +1181,7 @@
         <v>735</v>
       </c>
       <c r="Q8">
-        <v>1.613240198383839</v>
+        <v>1.6132401983838389</v>
       </c>
       <c r="R8">
         <v>1768.268454187878</v>
@@ -1101,13 +1190,13 @@
         <v>5.019047619047619</v>
       </c>
       <c r="T8">
-        <v>6.112727272727272</v>
+        <v>6.1127272727272723</v>
       </c>
       <c r="U8">
         <v>1.810373035742044</v>
       </c>
       <c r="V8">
-        <v>1816.294830341876</v>
+        <v>1816.2948303418759</v>
       </c>
       <c r="W8">
         <v>16618</v>
@@ -1119,10 +1208,10 @@
         <v>16476</v>
       </c>
       <c r="Z8">
-        <v>1.008618596746783</v>
+        <v>1.0086185967467829</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.9882629107981221</v>
+        <v>0.98826291079812212</v>
       </c>
       <c r="O9">
         <v>4616</v>
@@ -1172,16 +1261,16 @@
         <v>782</v>
       </c>
       <c r="Q9">
-        <v>1.775429067642624</v>
+        <v>1.7754290676426241</v>
       </c>
       <c r="R9">
-        <v>2445.614469103468</v>
+        <v>2445.6144691034679</v>
       </c>
       <c r="S9">
-        <v>5.902813299232736</v>
+        <v>5.9028132992327356</v>
       </c>
       <c r="T9">
-        <v>6.555718475073314</v>
+        <v>6.5557184750733137</v>
       </c>
       <c r="U9">
         <v>1.880337718390519</v>
@@ -1199,10 +1288,10 @@
         <v>19940</v>
       </c>
       <c r="Z9">
-        <v>1.002256770310933</v>
+        <v>1.0022567703109331</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.9847592656737097</v>
+        <v>0.98475926567370975</v>
       </c>
       <c r="O10">
         <v>3692</v>
@@ -1252,16 +1341,16 @@
         <v>805</v>
       </c>
       <c r="Q10">
-        <v>1.523081318204179</v>
+        <v>1.5230813182041789</v>
       </c>
       <c r="R10">
         <v>1660.919538845636</v>
       </c>
       <c r="S10">
-        <v>4.586335403726708</v>
+        <v>4.5863354037267081</v>
       </c>
       <c r="T10">
-        <v>5.340458015267176</v>
+        <v>5.3404580152671759</v>
       </c>
       <c r="U10">
         <v>1.675311419943295</v>
@@ -1282,7 +1371,7 @@
         <v>1.002618580015473</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9784112925546637</v>
+        <v>0.97841129255466375</v>
       </c>
       <c r="O11">
         <v>4478</v>
@@ -1335,19 +1424,19 @@
         <v>1.644202290226821</v>
       </c>
       <c r="R11">
-        <v>2190.7650189538</v>
+        <v>2190.7650189537999</v>
       </c>
       <c r="S11">
         <v>5.176878612716763</v>
       </c>
       <c r="T11">
-        <v>7.201754385964913</v>
+        <v>7.2017543859649127</v>
       </c>
       <c r="U11">
         <v>1.974324661057933</v>
       </c>
       <c r="V11">
-        <v>2409.634943196978</v>
+        <v>2409.6349431969779</v>
       </c>
       <c r="W11">
         <v>17953</v>
@@ -1359,10 +1448,53 @@
         <v>17875</v>
       </c>
       <c r="Z11">
-        <v>1.004363636363636</v>
+        <v>1.0043636363636359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.96789317447792889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0063537803087979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.93655666410846761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0130026739369791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>